--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Vtn-Itgb8.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Vtn-Itgb8.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
   </si>
   <si>
     <t>Vtn</t>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>6.597131</v>
+        <v>2.767552</v>
       </c>
       <c r="H2">
-        <v>19.791393</v>
+        <v>8.302655999999999</v>
       </c>
       <c r="I2">
-        <v>0.1209543635982448</v>
+        <v>0.04706493447833917</v>
       </c>
       <c r="J2">
-        <v>0.1209543635982448</v>
+        <v>0.04706493447833917</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.027767</v>
+        <v>3.987076</v>
       </c>
       <c r="N2">
-        <v>0.083301</v>
+        <v>11.961228</v>
       </c>
       <c r="O2">
-        <v>0.002463719941166009</v>
+        <v>0.2813308272685638</v>
       </c>
       <c r="P2">
-        <v>0.002463719941166009</v>
+        <v>0.2813308272685638</v>
       </c>
       <c r="Q2">
-        <v>0.183182536477</v>
+        <v>11.034440157952</v>
       </c>
       <c r="R2">
-        <v>1.648642828293</v>
+        <v>99.30996142156799</v>
       </c>
       <c r="S2">
-        <v>0.0002979976775680397</v>
+        <v>0.01324081695213191</v>
       </c>
       <c r="T2">
-        <v>0.0002979976775680397</v>
+        <v>0.01324081695213191</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>6.597131</v>
+        <v>2.767552</v>
       </c>
       <c r="H3">
-        <v>19.791393</v>
+        <v>8.302655999999999</v>
       </c>
       <c r="I3">
-        <v>0.1209543635982448</v>
+        <v>0.04706493447833917</v>
       </c>
       <c r="J3">
-        <v>0.1209543635982448</v>
+        <v>0.04706493447833917</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.987076</v>
+        <v>10.131229</v>
       </c>
       <c r="N3">
-        <v>11.961228</v>
+        <v>30.393687</v>
       </c>
       <c r="O3">
-        <v>0.3537666527944829</v>
+        <v>0.7148664925918803</v>
       </c>
       <c r="P3">
-        <v>0.3537666527944829</v>
+        <v>0.7148664925918804</v>
       </c>
       <c r="Q3">
-        <v>26.303262678956</v>
+        <v>28.03870308140799</v>
       </c>
       <c r="R3">
-        <v>236.729364110604</v>
+        <v>252.348327732672</v>
       </c>
       <c r="S3">
-        <v>0.0427896203510379</v>
+        <v>0.03364514463459698</v>
       </c>
       <c r="T3">
-        <v>0.0427896203510379</v>
+        <v>0.03364514463459698</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>6.597131</v>
+        <v>2.767552</v>
       </c>
       <c r="H4">
-        <v>19.791393</v>
+        <v>8.302655999999999</v>
       </c>
       <c r="I4">
-        <v>0.1209543635982448</v>
+        <v>0.04706493447833917</v>
       </c>
       <c r="J4">
-        <v>0.1209543635982448</v>
+        <v>0.04706493447833917</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>7.255512666666667</v>
+        <v>0.05389233333333333</v>
       </c>
       <c r="N4">
-        <v>21.766538</v>
+        <v>0.161677</v>
       </c>
       <c r="O4">
-        <v>0.6437696272643511</v>
+        <v>0.00380268013955587</v>
       </c>
       <c r="P4">
-        <v>0.6437696272643511</v>
+        <v>0.00380268013955587</v>
       </c>
       <c r="Q4">
-        <v>47.86556753415934</v>
+        <v>0.1491498349013333</v>
       </c>
       <c r="R4">
-        <v>430.790107807434</v>
+        <v>1.342348514112</v>
       </c>
       <c r="S4">
-        <v>0.07786674556963882</v>
+        <v>0.0001789728916102787</v>
       </c>
       <c r="T4">
-        <v>0.07786674556963882</v>
+        <v>0.0001789728916102787</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,13 +708,13 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,40 +729,40 @@
         <v>63.15952</v>
       </c>
       <c r="I5">
-        <v>0.3859970617919927</v>
+        <v>0.3580298485789791</v>
       </c>
       <c r="J5">
-        <v>0.3859970617919927</v>
+        <v>0.3580298485789791</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.027767</v>
+        <v>3.987076</v>
       </c>
       <c r="N5">
-        <v>0.083301</v>
+        <v>11.961228</v>
       </c>
       <c r="O5">
-        <v>0.002463719941166009</v>
+        <v>0.2813308272685638</v>
       </c>
       <c r="P5">
-        <v>0.002463719941166009</v>
+        <v>0.2813308272685638</v>
       </c>
       <c r="Q5">
-        <v>0.5845834639466667</v>
+        <v>83.94060212117334</v>
       </c>
       <c r="R5">
-        <v>5.26125117552</v>
+        <v>755.46541909056</v>
       </c>
       <c r="S5">
-        <v>0.0009509886583684208</v>
+        <v>0.1007248334875628</v>
       </c>
       <c r="T5">
-        <v>0.0009509886583684208</v>
+        <v>0.1007248334875628</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,13 +770,13 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -788,10 +791,10 @@
         <v>63.15952</v>
       </c>
       <c r="I6">
-        <v>0.3859970617919927</v>
+        <v>0.3580298485789791</v>
       </c>
       <c r="J6">
-        <v>0.3859970617919927</v>
+        <v>0.3580298485789791</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -800,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.987076</v>
+        <v>10.131229</v>
       </c>
       <c r="N6">
-        <v>11.961228</v>
+        <v>30.393687</v>
       </c>
       <c r="O6">
-        <v>0.3537666527944829</v>
+        <v>0.7148664925918803</v>
       </c>
       <c r="P6">
-        <v>0.3537666527944829</v>
+        <v>0.7148664925918804</v>
       </c>
       <c r="Q6">
-        <v>83.94060212117334</v>
+        <v>213.2945202166933</v>
       </c>
       <c r="R6">
-        <v>755.46541909056</v>
+        <v>1919.65068195024</v>
       </c>
       <c r="S6">
-        <v>0.1365528885386585</v>
+        <v>0.2559435420968568</v>
       </c>
       <c r="T6">
-        <v>0.1365528885386585</v>
+        <v>0.2559435420968568</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,13 +832,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
         <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -850,40 +853,40 @@
         <v>63.15952</v>
       </c>
       <c r="I7">
-        <v>0.3859970617919927</v>
+        <v>0.3580298485789791</v>
       </c>
       <c r="J7">
-        <v>0.3859970617919927</v>
+        <v>0.3580298485789791</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>7.255512666666667</v>
+        <v>0.05389233333333333</v>
       </c>
       <c r="N7">
-        <v>21.766538</v>
+        <v>0.161677</v>
       </c>
       <c r="O7">
-        <v>0.6437696272643511</v>
+        <v>0.00380268013955587</v>
       </c>
       <c r="P7">
-        <v>0.6437696272643511</v>
+        <v>0.00380268013955587</v>
       </c>
       <c r="Q7">
-        <v>152.7515657935289</v>
+        <v>1.134604635004444</v>
       </c>
       <c r="R7">
-        <v>1374.76409214176</v>
+        <v>10.21144171504</v>
       </c>
       <c r="S7">
-        <v>0.2484931845949658</v>
+        <v>0.001361472994559479</v>
       </c>
       <c r="T7">
-        <v>0.2484931845949658</v>
+        <v>0.00136147299455948</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -891,13 +894,13 @@
         <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -906,46 +909,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>26.89201066666667</v>
+        <v>34.97741266666667</v>
       </c>
       <c r="H8">
-        <v>80.67603200000001</v>
+        <v>104.932238</v>
       </c>
       <c r="I8">
-        <v>0.4930485746097625</v>
+        <v>0.5948251867999219</v>
       </c>
       <c r="J8">
-        <v>0.4930485746097625</v>
+        <v>0.5948251867999219</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.027767</v>
+        <v>3.987076</v>
       </c>
       <c r="N8">
-        <v>0.083301</v>
+        <v>11.961228</v>
       </c>
       <c r="O8">
-        <v>0.002463719941166009</v>
+        <v>0.2813308272685638</v>
       </c>
       <c r="P8">
-        <v>0.002463719941166009</v>
+        <v>0.2813308272685638</v>
       </c>
       <c r="Q8">
-        <v>0.7467104601813334</v>
+        <v>139.4576025853627</v>
       </c>
       <c r="R8">
-        <v>6.720394141632</v>
+        <v>1255.118423268264</v>
       </c>
       <c r="S8">
-        <v>0.001214733605229549</v>
+        <v>0.1673426618826</v>
       </c>
       <c r="T8">
-        <v>0.001214733605229549</v>
+        <v>0.1673426618826</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -953,13 +956,13 @@
         <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -968,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>26.89201066666667</v>
+        <v>34.97741266666667</v>
       </c>
       <c r="H9">
-        <v>80.67603200000001</v>
+        <v>104.932238</v>
       </c>
       <c r="I9">
-        <v>0.4930485746097625</v>
+        <v>0.5948251867999219</v>
       </c>
       <c r="J9">
-        <v>0.4930485746097625</v>
+        <v>0.5948251867999219</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -986,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.987076</v>
+        <v>10.131229</v>
       </c>
       <c r="N9">
-        <v>11.961228</v>
+        <v>30.393687</v>
       </c>
       <c r="O9">
-        <v>0.3537666527944829</v>
+        <v>0.7148664925918803</v>
       </c>
       <c r="P9">
-        <v>0.3537666527944829</v>
+        <v>0.7148664925918804</v>
       </c>
       <c r="Q9">
-        <v>107.2204903208107</v>
+        <v>354.3641775535007</v>
       </c>
       <c r="R9">
-        <v>964.9844128872961</v>
+        <v>3189.277597981506</v>
       </c>
       <c r="S9">
-        <v>0.1744241439047866</v>
+        <v>0.4252205949929702</v>
       </c>
       <c r="T9">
-        <v>0.1744241439047866</v>
+        <v>0.4252205949929703</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1015,61 +1018,247 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>34.97741266666667</v>
+      </c>
+      <c r="H10">
+        <v>104.932238</v>
+      </c>
+      <c r="I10">
+        <v>0.5948251867999219</v>
+      </c>
+      <c r="J10">
+        <v>0.5948251867999219</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.05389233333333333</v>
+      </c>
+      <c r="N10">
+        <v>0.161677</v>
+      </c>
+      <c r="O10">
+        <v>0.00380268013955587</v>
+      </c>
+      <c r="P10">
+        <v>0.00380268013955587</v>
+      </c>
+      <c r="Q10">
+        <v>1.885014382569556</v>
+      </c>
+      <c r="R10">
+        <v>16.965129443126</v>
+      </c>
+      <c r="S10">
+        <v>0.002261929924351674</v>
+      </c>
+      <c r="T10">
+        <v>0.002261929924351674</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
         <v>24</v>
       </c>
-      <c r="D10" t="s">
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.004706</v>
+      </c>
+      <c r="H11">
+        <v>0.014118</v>
+      </c>
+      <c r="I11">
+        <v>8.003014275976175E-05</v>
+      </c>
+      <c r="J11">
+        <v>8.003014275976175E-05</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>3.987076</v>
+      </c>
+      <c r="N11">
+        <v>11.961228</v>
+      </c>
+      <c r="O11">
+        <v>0.2813308272685638</v>
+      </c>
+      <c r="P11">
+        <v>0.2813308272685638</v>
+      </c>
+      <c r="Q11">
+        <v>0.018763179656</v>
+      </c>
+      <c r="R11">
+        <v>0.168868616904</v>
+      </c>
+      <c r="S11">
+        <v>2.251494626902504E-05</v>
+      </c>
+      <c r="T11">
+        <v>2.251494626902504E-05</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
         <v>22</v>
       </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>26.89201066666667</v>
-      </c>
-      <c r="H10">
-        <v>80.67603200000001</v>
-      </c>
-      <c r="I10">
-        <v>0.4930485746097625</v>
-      </c>
-      <c r="J10">
-        <v>0.4930485746097625</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>7.255512666666667</v>
-      </c>
-      <c r="N10">
-        <v>21.766538</v>
-      </c>
-      <c r="O10">
-        <v>0.6437696272643511</v>
-      </c>
-      <c r="P10">
-        <v>0.6437696272643511</v>
-      </c>
-      <c r="Q10">
-        <v>195.1153240241351</v>
-      </c>
-      <c r="R10">
-        <v>1756.037916217216</v>
-      </c>
-      <c r="S10">
-        <v>0.3174096970997464</v>
-      </c>
-      <c r="T10">
-        <v>0.3174096970997464</v>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.004706</v>
+      </c>
+      <c r="H12">
+        <v>0.014118</v>
+      </c>
+      <c r="I12">
+        <v>8.003014275976175E-05</v>
+      </c>
+      <c r="J12">
+        <v>8.003014275976175E-05</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>10.131229</v>
+      </c>
+      <c r="N12">
+        <v>30.393687</v>
+      </c>
+      <c r="O12">
+        <v>0.7148664925918803</v>
+      </c>
+      <c r="P12">
+        <v>0.7148664925918804</v>
+      </c>
+      <c r="Q12">
+        <v>0.047677563674</v>
+      </c>
+      <c r="R12">
+        <v>0.429098073066</v>
+      </c>
+      <c r="S12">
+        <v>5.721086745629834E-05</v>
+      </c>
+      <c r="T12">
+        <v>5.721086745629836E-05</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.004706</v>
+      </c>
+      <c r="H13">
+        <v>0.014118</v>
+      </c>
+      <c r="I13">
+        <v>8.003014275976175E-05</v>
+      </c>
+      <c r="J13">
+        <v>8.003014275976175E-05</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.05389233333333333</v>
+      </c>
+      <c r="N13">
+        <v>0.161677</v>
+      </c>
+      <c r="O13">
+        <v>0.00380268013955587</v>
+      </c>
+      <c r="P13">
+        <v>0.00380268013955587</v>
+      </c>
+      <c r="Q13">
+        <v>0.0002536173206666666</v>
+      </c>
+      <c r="R13">
+        <v>0.002282555886</v>
+      </c>
+      <c r="S13">
+        <v>3.04329034438367E-07</v>
+      </c>
+      <c r="T13">
+        <v>3.04329034438367E-07</v>
       </c>
     </row>
   </sheetData>
